--- a/openpyxl/Doc_Excel.xlsx
+++ b/openpyxl/Doc_Excel.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Primera_hoja" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Primera_ws" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Primera_ws Copy" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +18,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -47,8 +50,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -415,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +431,9 @@
       <c r="A1" t="n">
         <v>0</v>
       </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -437,11 +444,18 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="n">
+        <v>40380</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
+      <c r="B4">
+        <f>SUM(A2, A4)</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -449,8 +463,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>30</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>hola</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -471,6 +487,20 @@
     <row r="10">
       <c r="A10" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fin de las celdas</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fs</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -494,4 +524,79 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="001072AB"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>hola</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/openpyxl/Doc_Excel.xlsx
+++ b/openpyxl/Doc_Excel.xlsx
@@ -18,9 +18,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -50,9 +48,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,17 +441,10 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>40380</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
-      </c>
-      <c r="B4">
-        <f>SUM(A2, A4)</f>
-        <v/>
       </c>
     </row>
     <row r="5">
@@ -496,6 +486,9 @@
         </is>
       </c>
     </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
     <row r="15">
       <c r="D15" t="inlineStr">
         <is>
@@ -503,6 +496,7 @@
         </is>
       </c>
     </row>
+    <row r="16"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -533,7 +527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/openpyxl/Doc_Excel.xlsx
+++ b/openpyxl/Doc_Excel.xlsx
@@ -18,7 +18,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -48,8 +50,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -124,6 +127,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1885950" cy="1638300"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,19 +443,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="001072AB"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col hidden="1" outlineLevel="1" width="13" customWidth="1" min="5" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
@@ -441,15 +477,27 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="n">
+        <v>40380</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
+      <c r="B4">
+        <f>SUM(A2, A4)</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>You should see three logos below</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -486,9 +534,6 @@
         </is>
       </c>
     </row>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
     <row r="15">
       <c r="D15" t="inlineStr">
         <is>
@@ -496,9 +541,14 @@
         </is>
       </c>
     </row>
-    <row r="16"/>
+    <row r="16" hidden="1" outlineLevel="1"/>
+    <row r="17" hidden="1" outlineLevel="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C11:D11"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -527,7 +577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/openpyxl/Doc_Excel.xlsx
+++ b/openpyxl/Doc_Excel.xlsx
@@ -133,7 +133,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>7</col>
       <colOff>0</colOff>
       <row>5</row>
       <rowOff>0</rowOff>
@@ -482,10 +482,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="D4">
         <f>SUM(A2, A4)</f>
         <v/>
       </c>
@@ -507,19 +507,14 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -534,6 +529,9 @@
         </is>
       </c>
     </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
     <row r="15">
       <c r="D15" t="inlineStr">
         <is>
